--- a/myapp/graph_creation/add_nodes.xlsx
+++ b/myapp/graph_creation/add_nodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">ADCM_DIN</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New1001</t>
   </si>
 </sst>
 </file>
@@ -167,10 +173,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,6 +266,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
